--- a/src/main/frontend/html_css/Basic HTML+CSS - Homestudy links.xlsx
+++ b/src/main/frontend/html_css/Basic HTML+CSS - Homestudy links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">Тема</t>
   </si>
@@ -142,9 +142,6 @@
 http://codeguide.academy/html-css.html#css-order - порядок css-свойств</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=7YgbwB9FHLc</t>
   </si>
   <si>
@@ -328,11 +325,13 @@
 https://frontender.info/a-guide-to-flexbox/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://flexboxfroggy.com/</t>
+    <t xml:space="preserve">https://flexboxfroggy.com/
+https://developer.mozilla.org/ru/docs/Web/CSS/CSS_Grid_Layout/Basic_Concepts_of_Grid_Layout</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=38bMnJ2l4bg
-https://www.youtube.com/watch?v=RNjnRA0QSug</t>
+https://www.youtube.com/watch?v=RNjnRA0QSug
+https://www.youtube.com/watch?v=-fDqBEjfzGo</t>
   </si>
   <si>
     <t xml:space="preserve">Анимация на CSS</t>
@@ -372,6 +371,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -393,6 +393,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -499,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,227 +650,221 @@
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="206.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="4" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -895,9 +890,8 @@
     <hyperlink ref="D24" r:id="rId19" display="https://www.youtube.com/watch?v=oKjHixIW22I"/>
     <hyperlink ref="C25" r:id="rId20" display="http://www.css3files.com/"/>
     <hyperlink ref="D25" r:id="rId21" display="https://www.youtube.com/watch?v=7ftsTkMg5nw"/>
-    <hyperlink ref="C26" r:id="rId22" display="https://flexboxfroggy.com/"/>
-    <hyperlink ref="C28" r:id="rId23" display="http://www.sbs.com.au/theboat/"/>
-    <hyperlink ref="D28" r:id="rId24" display="https://www.youtube.com/watch?time_continue=46&amp;v=seD2YPrMHLA"/>
+    <hyperlink ref="C28" r:id="rId22" display="http://www.sbs.com.au/theboat/"/>
+    <hyperlink ref="D28" r:id="rId23" display="https://www.youtube.com/watch?time_continue=46&amp;v=seD2YPrMHLA"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/frontend/html_css/Basic HTML+CSS - Homestudy links.xlsx
+++ b/src/main/frontend/html_css/Basic HTML+CSS - Homestudy links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Тема</t>
   </si>
@@ -221,6 +221,10 @@
   <si>
     <t xml:space="preserve">http://dreamhelg.ru/2011/02/css-position-in-10-steps/https://html5book.ru/css-position/ - изучаем css-позиционирование за 10 шагов
 https://html5book.ru/css-position/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/ru/docs/Web/CSS/position
+http://shpargalkablog.ru/2017/04/position-sticky.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=NQVIKd-bnw4</t>
@@ -500,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,140 +735,142 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="206.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
